--- a/R/receiver info.xlsx
+++ b/R/receiver info.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/watermaster/Desktop/blogwork/LPO.mapping/R/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Fishery\Research\Rust\Hoyt\Walleye Map (blog)\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3812A091-088F-ED47-ACF6-C33429065639}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25120" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="10160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
   <si>
     <t>Receiver</t>
   </si>
@@ -48,9 +47,6 @@
     <t>VR2W-134450</t>
   </si>
   <si>
-    <t>VR2W-134451</t>
-  </si>
-  <si>
     <t>VR2W-134452</t>
   </si>
   <si>
@@ -174,9 +170,6 @@
     <t>Thama</t>
   </si>
   <si>
-    <t>Mouth of Morton Sough</t>
-  </si>
-  <si>
     <t>Windy Point</t>
   </si>
   <si>
@@ -195,9 +188,6 @@
     <t>Clark Fork, above bridge</t>
   </si>
   <si>
-    <t>Long Bridge</t>
-  </si>
-  <si>
     <t>Blackwell Point</t>
   </si>
   <si>
@@ -256,12 +246,33 @@
   </si>
   <si>
     <t>VR2W-137165</t>
+  </si>
+  <si>
+    <t>VR2W-137168</t>
+  </si>
+  <si>
+    <t>Denton Slough</t>
+  </si>
+  <si>
+    <t>VR2W-137164</t>
+  </si>
+  <si>
+    <t>Long Bridge S.</t>
+  </si>
+  <si>
+    <t>Long Bridge N.</t>
+  </si>
+  <si>
+    <t>Kootenai Bay</t>
+  </si>
+  <si>
+    <t>Mouth of Morton Slough</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,7 +408,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal_Sheet1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -674,22 +685,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="39.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -700,10 +711,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -714,10 +725,10 @@
         <v>-116.073796</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -728,10 +739,10 @@
         <v>-116.27652</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -742,10 +753,10 @@
         <v>-116.41037</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -756,12 +767,12 @@
         <v>-116.183007</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="B6" s="2">
         <v>48.259790000000002</v>
@@ -770,12 +781,12 @@
         <v>-116.5234</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>48.09468004</v>
@@ -784,12 +795,12 @@
         <v>-116.133594</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2">
         <v>48.152119999999996</v>
@@ -798,12 +809,12 @@
         <v>-116.21753</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2">
         <v>48.322023989999998</v>
@@ -812,12 +823,12 @@
         <v>-116.38781</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2">
         <v>48.15506998</v>
@@ -826,12 +837,12 @@
         <v>-116.252279</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2">
         <v>48.13278803</v>
@@ -840,12 +851,12 @@
         <v>-116.166149</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2">
         <v>48.250259999999997</v>
@@ -854,12 +865,12 @@
         <v>-116.37596000000001</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2">
         <v>48.144300000000001</v>
@@ -868,12 +879,12 @@
         <v>-116.19011</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2">
         <v>48.115419969999998</v>
@@ -882,9 +893,9 @@
         <v>-116.15527400000001</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2">
         <v>47.976909999999997</v>
@@ -893,12 +904,12 @@
         <v>-116.54978</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2">
         <v>48.091905959999998</v>
@@ -907,12 +918,12 @@
         <v>-116.113107</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2">
         <v>48.04054</v>
@@ -921,12 +932,12 @@
         <v>-116.53100000000001</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2">
         <v>48.253610000000002</v>
@@ -935,12 +946,12 @@
         <v>-116.53876</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2">
         <v>48.145530000000001</v>
@@ -949,12 +960,12 @@
         <v>-116.19371</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2">
         <v>47.964179999999999</v>
@@ -963,12 +974,12 @@
         <v>-116.54574</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2">
         <v>48.24436</v>
@@ -977,12 +988,12 @@
         <v>-116.53901999999999</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2">
         <v>48.131990000000002</v>
@@ -991,12 +1002,12 @@
         <v>-116.16840999999999</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2">
         <v>48.15878</v>
@@ -1005,12 +1016,12 @@
         <v>-116.44307000000001</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2">
         <v>47.961469999999998</v>
@@ -1019,12 +1030,12 @@
         <v>-116.47178</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2">
         <v>48.252310999999999</v>
@@ -1033,12 +1044,12 @@
         <v>-116.66489300000001</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2">
         <v>48.122300000000003</v>
@@ -1047,12 +1058,12 @@
         <v>-116.395</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2">
         <v>48.206710000000001</v>
@@ -1061,12 +1072,12 @@
         <v>-116.7145</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2">
         <v>48.148960000000002</v>
@@ -1075,12 +1086,12 @@
         <v>-116.83096</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2">
         <v>48.17624</v>
@@ -1089,12 +1100,12 @@
         <v>-116.90897</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2">
         <v>48.161000000000001</v>
@@ -1103,12 +1114,12 @@
         <v>-116.768</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2">
         <v>48.295200000000001</v>
@@ -1117,12 +1128,12 @@
         <v>-116.47790000000001</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2">
         <v>48.238439999999997</v>
@@ -1131,12 +1142,12 @@
         <v>-116.32597</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2">
         <v>48.181970999999997</v>
@@ -1145,12 +1156,12 @@
         <v>-116.89706</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2">
         <v>48.175609999999999</v>
@@ -1159,12 +1170,12 @@
         <v>-116.23927</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2">
         <v>48.092030000000001</v>
@@ -1173,12 +1184,12 @@
         <v>-116.13045</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2">
         <v>48.177126999999999</v>
@@ -1187,12 +1198,12 @@
         <v>-116.988527</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2">
         <v>48.204039999999999</v>
@@ -1201,12 +1212,12 @@
         <v>-116.35947</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" s="7">
         <v>48.303930000000001</v>
@@ -1215,26 +1226,26 @@
         <v>-116.52139</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B39" s="7">
-        <v>48.31185</v>
+        <v>48.305210000000002</v>
       </c>
       <c r="C39" s="7">
-        <v>-116.52139</v>
+        <v>-116.45361</v>
       </c>
       <c r="D39" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="B40" s="7">
         <v>48.197450000000003</v>
@@ -1243,14 +1254,25 @@
         <v>-116.70396</v>
       </c>
       <c r="D40" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41">
+        <v>48.203850000000003</v>
+      </c>
+      <c r="C41">
+        <v>-116.25677</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="D41" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>